--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt7b-Fzd5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt7b-Fzd5.xlsx
@@ -546,10 +546,10 @@
         <v>0.218757</v>
       </c>
       <c r="I2">
-        <v>0.1016383815134179</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="J2">
-        <v>0.1016383815134179</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.048438999999999</v>
+        <v>3.867218333333334</v>
       </c>
       <c r="N2">
-        <v>12.145317</v>
+        <v>11.601655</v>
       </c>
       <c r="O2">
-        <v>0.1703267688113503</v>
+        <v>0.1566152977872902</v>
       </c>
       <c r="P2">
-        <v>0.1703267688113503</v>
+        <v>0.1566152977872902</v>
       </c>
       <c r="Q2">
-        <v>0.2952081234409999</v>
+        <v>0.2819936936483333</v>
       </c>
       <c r="R2">
-        <v>2.656873110969</v>
+        <v>2.537943242835</v>
       </c>
       <c r="S2">
-        <v>0.01731173711039575</v>
+        <v>0.0231438311372499</v>
       </c>
       <c r="T2">
-        <v>0.01731173711039576</v>
+        <v>0.0231438311372499</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.218757</v>
       </c>
       <c r="I3">
-        <v>0.1016383815134179</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="J3">
-        <v>0.1016383815134179</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>11.27122833333333</v>
       </c>
       <c r="N3">
-        <v>33.81368499999999</v>
+        <v>33.813685</v>
       </c>
       <c r="O3">
-        <v>0.4742054659960561</v>
+        <v>0.4564642152831324</v>
       </c>
       <c r="P3">
-        <v>0.4742054659960562</v>
+        <v>0.4564642152831324</v>
       </c>
       <c r="Q3">
-        <v>0.8218866988383332</v>
+        <v>0.8218866988383333</v>
       </c>
       <c r="R3">
-        <v>7.396980289544999</v>
+        <v>7.396980289545001</v>
       </c>
       <c r="S3">
-        <v>0.04819747606865529</v>
+        <v>0.06745401546315245</v>
       </c>
       <c r="T3">
-        <v>0.04819747606865529</v>
+        <v>0.06745401546315245</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.218757</v>
       </c>
       <c r="I4">
-        <v>0.1016383815134179</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="J4">
-        <v>0.1016383815134179</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.219226333333334</v>
+        <v>5.654344666666667</v>
       </c>
       <c r="N4">
-        <v>9.657679000000002</v>
+        <v>16.963034</v>
       </c>
       <c r="O4">
-        <v>0.1354399607920677</v>
+        <v>0.2289906587711778</v>
       </c>
       <c r="P4">
-        <v>0.1354399607920677</v>
+        <v>0.2289906587711778</v>
       </c>
       <c r="Q4">
-        <v>0.2347427650003334</v>
+        <v>0.4123091587486666</v>
       </c>
       <c r="R4">
-        <v>2.112684885003</v>
+        <v>3.710782428738</v>
       </c>
       <c r="S4">
-        <v>0.01376589840714654</v>
+        <v>0.03383910265142592</v>
       </c>
       <c r="T4">
-        <v>0.01376589840714654</v>
+        <v>0.03383910265142592</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.218757</v>
       </c>
       <c r="I5">
-        <v>0.1016383815134179</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="J5">
-        <v>0.1016383815134179</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9942166666666665</v>
+        <v>0.819389</v>
       </c>
       <c r="N5">
-        <v>2.98265</v>
+        <v>2.458167</v>
       </c>
       <c r="O5">
-        <v>0.04182889067409059</v>
+        <v>0.03318376186120772</v>
       </c>
       <c r="P5">
-        <v>0.0418288906740906</v>
+        <v>0.03318376186120772</v>
       </c>
       <c r="Q5">
-        <v>0.07249728511666666</v>
+        <v>0.059749026491</v>
       </c>
       <c r="R5">
-        <v>0.6524755660499999</v>
+        <v>0.537741238419</v>
       </c>
       <c r="S5">
-        <v>0.004251420748616268</v>
+        <v>0.004903731575810535</v>
       </c>
       <c r="T5">
-        <v>0.004251420748616269</v>
+        <v>0.004903731575810535</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.218757</v>
       </c>
       <c r="I6">
-        <v>0.1016383815134179</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="J6">
-        <v>0.1016383815134179</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.235549333333334</v>
+        <v>3.080288333333333</v>
       </c>
       <c r="N6">
-        <v>12.706648</v>
+        <v>9.240864999999999</v>
       </c>
       <c r="O6">
-        <v>0.1781989137264352</v>
+        <v>0.1247460662971919</v>
       </c>
       <c r="P6">
-        <v>0.1781989137264352</v>
+        <v>0.1247460662971919</v>
       </c>
       <c r="Q6">
-        <v>0.3088520218373334</v>
+        <v>0.2246115449783333</v>
       </c>
       <c r="R6">
-        <v>2.779668196536</v>
+        <v>2.021503904805</v>
       </c>
       <c r="S6">
-        <v>0.01811184917860407</v>
+        <v>0.01843435433325011</v>
       </c>
       <c r="T6">
-        <v>0.01811184917860407</v>
+        <v>0.01843435433325011</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6445166666666666</v>
+        <v>0.420527</v>
       </c>
       <c r="H7">
-        <v>1.93355</v>
+        <v>1.261581</v>
       </c>
       <c r="I7">
-        <v>0.8983616184865821</v>
+        <v>0.852224964839111</v>
       </c>
       <c r="J7">
-        <v>0.898361618486582</v>
+        <v>0.852224964839111</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.048438999999999</v>
+        <v>3.867218333333334</v>
       </c>
       <c r="N7">
-        <v>12.145317</v>
+        <v>11.601655</v>
       </c>
       <c r="O7">
-        <v>0.1703267688113503</v>
+        <v>0.1566152977872902</v>
       </c>
       <c r="P7">
-        <v>0.1703267688113503</v>
+        <v>0.1566152977872902</v>
       </c>
       <c r="Q7">
-        <v>2.609286409483333</v>
+        <v>1.626269724061667</v>
       </c>
       <c r="R7">
-        <v>23.48357768535</v>
+        <v>14.636427516555</v>
       </c>
       <c r="S7">
-        <v>0.1530150317009545</v>
+        <v>0.1334714666500403</v>
       </c>
       <c r="T7">
-        <v>0.1530150317009545</v>
+        <v>0.1334714666500403</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6445166666666666</v>
+        <v>0.420527</v>
       </c>
       <c r="H8">
-        <v>1.93355</v>
+        <v>1.261581</v>
       </c>
       <c r="I8">
-        <v>0.8983616184865821</v>
+        <v>0.852224964839111</v>
       </c>
       <c r="J8">
-        <v>0.898361618486582</v>
+        <v>0.852224964839111</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,25 +933,25 @@
         <v>11.27122833333333</v>
       </c>
       <c r="N8">
-        <v>33.81368499999999</v>
+        <v>33.813685</v>
       </c>
       <c r="O8">
-        <v>0.4742054659960561</v>
+        <v>0.4564642152831324</v>
       </c>
       <c r="P8">
-        <v>0.4742054659960562</v>
+        <v>0.4564642152831324</v>
       </c>
       <c r="Q8">
-        <v>7.264494514638887</v>
+        <v>4.739855837331667</v>
       </c>
       <c r="R8">
-        <v>65.38045063174998</v>
+        <v>42.658702535985</v>
       </c>
       <c r="S8">
-        <v>0.4260079899274009</v>
+        <v>0.3890101998199799</v>
       </c>
       <c r="T8">
-        <v>0.4260079899274009</v>
+        <v>0.3890101998199799</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.6445166666666666</v>
+        <v>0.420527</v>
       </c>
       <c r="H9">
-        <v>1.93355</v>
+        <v>1.261581</v>
       </c>
       <c r="I9">
-        <v>0.8983616184865821</v>
+        <v>0.852224964839111</v>
       </c>
       <c r="J9">
-        <v>0.898361618486582</v>
+        <v>0.852224964839111</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.219226333333334</v>
+        <v>5.654344666666667</v>
       </c>
       <c r="N9">
-        <v>9.657679000000002</v>
+        <v>16.963034</v>
       </c>
       <c r="O9">
-        <v>0.1354399607920677</v>
+        <v>0.2289906587711778</v>
       </c>
       <c r="P9">
-        <v>0.1354399607920677</v>
+        <v>0.2289906587711778</v>
       </c>
       <c r="Q9">
-        <v>2.074845025605556</v>
+        <v>2.377804599639334</v>
       </c>
       <c r="R9">
-        <v>18.67360523045</v>
+        <v>21.400241396754</v>
       </c>
       <c r="S9">
-        <v>0.1216740623849211</v>
+        <v>0.1951515561197519</v>
       </c>
       <c r="T9">
-        <v>0.1216740623849211</v>
+        <v>0.1951515561197519</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6445166666666666</v>
+        <v>0.420527</v>
       </c>
       <c r="H10">
-        <v>1.93355</v>
+        <v>1.261581</v>
       </c>
       <c r="I10">
-        <v>0.8983616184865821</v>
+        <v>0.852224964839111</v>
       </c>
       <c r="J10">
-        <v>0.898361618486582</v>
+        <v>0.852224964839111</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9942166666666665</v>
+        <v>0.819389</v>
       </c>
       <c r="N10">
-        <v>2.98265</v>
+        <v>2.458167</v>
       </c>
       <c r="O10">
-        <v>0.04182889067409059</v>
+        <v>0.03318376186120772</v>
       </c>
       <c r="P10">
-        <v>0.0418288906740906</v>
+        <v>0.03318376186120772</v>
       </c>
       <c r="Q10">
-        <v>0.6407892119444443</v>
+        <v>0.3445751980030001</v>
       </c>
       <c r="R10">
-        <v>5.767102907499999</v>
+        <v>3.101176782027</v>
       </c>
       <c r="S10">
-        <v>0.03757746992547432</v>
+        <v>0.02828003028539719</v>
       </c>
       <c r="T10">
-        <v>0.03757746992547432</v>
+        <v>0.02828003028539719</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6445166666666666</v>
+        <v>0.420527</v>
       </c>
       <c r="H11">
-        <v>1.93355</v>
+        <v>1.261581</v>
       </c>
       <c r="I11">
-        <v>0.8983616184865821</v>
+        <v>0.852224964839111</v>
       </c>
       <c r="J11">
-        <v>0.898361618486582</v>
+        <v>0.852224964839111</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.235549333333334</v>
+        <v>3.080288333333333</v>
       </c>
       <c r="N11">
-        <v>12.706648</v>
+        <v>9.240864999999999</v>
       </c>
       <c r="O11">
-        <v>0.1781989137264352</v>
+        <v>0.1247460662971919</v>
       </c>
       <c r="P11">
-        <v>0.1781989137264352</v>
+        <v>0.1247460662971919</v>
       </c>
       <c r="Q11">
-        <v>2.729882137822222</v>
+        <v>1.295344411951667</v>
       </c>
       <c r="R11">
-        <v>24.5689392404</v>
+        <v>11.658099707565</v>
       </c>
       <c r="S11">
-        <v>0.1600870645478312</v>
+        <v>0.1063117119639418</v>
       </c>
       <c r="T11">
-        <v>0.1600870645478311</v>
+        <v>0.1063117119639418</v>
       </c>
     </row>
   </sheetData>
